--- a/attendance_log.xlsx
+++ b/attendance_log.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>ID</t>
   </si>
@@ -25,10 +25,25 @@
     <t>Attendance</t>
   </si>
   <si>
+    <t>B180305042</t>
+  </si>
+  <si>
     <t>B180305043</t>
   </si>
   <si>
-    <t>2024-04-04 13:23:14</t>
+    <t>B180305051</t>
+  </si>
+  <si>
+    <t>2024-04-05 17:16:17</t>
+  </si>
+  <si>
+    <t>2024-04-05 17:16:19</t>
+  </si>
+  <si>
+    <t>2024-04-05 17:16:10</t>
+  </si>
+  <si>
+    <t>Present</t>
   </si>
   <si>
     <t>Absent</t>
@@ -389,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -414,10 +429,32 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
         <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/attendance_log.xlsx
+++ b/attendance_log.xlsx
@@ -34,19 +34,19 @@
     <t>B180305051</t>
   </si>
   <si>
-    <t>2024-04-05 17:16:17</t>
-  </si>
-  <si>
-    <t>2024-04-05 17:16:19</t>
-  </si>
-  <si>
-    <t>2024-04-05 17:16:10</t>
+    <t>2024-04-08 20:02:27</t>
+  </si>
+  <si>
+    <t>2024-04-08 20:02:30</t>
+  </si>
+  <si>
+    <t>2024-04-08 20:02:17</t>
+  </si>
+  <si>
+    <t>Absent</t>
   </si>
   <si>
     <t>Present</t>
-  </si>
-  <si>
-    <t>Absent</t>
   </si>
 </sst>
 </file>
@@ -454,7 +454,7 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/attendance_log.xlsx
+++ b/attendance_log.xlsx
@@ -34,13 +34,13 @@
     <t>B180305051</t>
   </si>
   <si>
-    <t>2024-04-08 20:02:27</t>
-  </si>
-  <si>
-    <t>2024-04-08 20:02:30</t>
-  </si>
-  <si>
-    <t>2024-04-08 20:02:17</t>
+    <t>2024-05-02 12:20:22</t>
+  </si>
+  <si>
+    <t>2024-05-02 12:20:25</t>
+  </si>
+  <si>
+    <t>2024-05-02 12:20:12</t>
   </si>
   <si>
     <t>Absent</t>
